--- a/macro public results.xlsx
+++ b/macro public results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharek\PycharmProjects\DIPLOMKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F49D7D2-402A-401F-A585-DA36E6ACBDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A2C69C-3C24-43F4-9994-A10B6B687009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="6460" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>DATASETS/MODELS</t>
   </si>
@@ -105,19 +105,19 @@
     <t>NRF_extraLayer_nesterov</t>
   </si>
   <si>
-    <t>0.693933228956868+-0.03154227120719022</t>
+    <t>0.6983432730277167+-0.03093300345354449</t>
   </si>
   <si>
     <t>0.6882647770380939+-0.04143731690646254</t>
   </si>
   <si>
-    <t>0.5594586171243674+-0.01950231221982416</t>
-  </si>
-  <si>
-    <t>0.558173176783285+-0.020497755136543918</t>
-  </si>
-  <si>
-    <t>0.5610922866843608+-0.035304270630305355</t>
+    <t>0.551955337207222+-0.014213626195568624</t>
+  </si>
+  <si>
+    <t>0.5546317606220013+-0.00856987730799973</t>
+  </si>
+  <si>
+    <t>0.5577231772257962+-0.016016854869184066</t>
   </si>
   <si>
     <t>0.7292556888079784+-0.032847613922891226</t>
@@ -129,46 +129,46 @@
     <t>0.7291455992730925+-0.015564804613805869</t>
   </si>
   <si>
-    <t>0.7311033534477671+-0.030266878201115194</t>
-  </si>
-  <si>
-    <t>0.7264389330696333+-0.02820855031028795</t>
+    <t>0.7281458604056411+-0.021435142051761988</t>
+  </si>
+  <si>
+    <t>0.6985910926844939+-0.03261869036879527</t>
   </si>
   <si>
     <t>0.7282227841108878+-0.022122785880753035</t>
   </si>
   <si>
-    <t>0.7402182379885242+-0.024665433375594008</t>
-  </si>
-  <si>
-    <t>0.7350397089522721+-0.03701331923715495</t>
-  </si>
-  <si>
-    <t>0.7220287070301367+-0.024919732503903825</t>
+    <t>0.6873441297301679+-0.052619489173822837</t>
+  </si>
+  <si>
+    <t>0.7112034768845331+-0.017585928971601758</t>
+  </si>
+  <si>
+    <t>0.7020839327090078+-0.028447392416798414</t>
   </si>
   <si>
     <t>0.7192961598141597+-0.024872687464839487</t>
   </si>
   <si>
-    <t>0.722943236374577+-0.03390781669057485</t>
+    <t>0.6968846036888664+-0.04510086289193479</t>
   </si>
   <si>
     <t>0.7196901433734981+-0.009085025682637757</t>
   </si>
   <si>
-    <t>0.9991445550160776+-0.001173827633170736</t>
-  </si>
-  <si>
-    <t>0.844668408521446+-0.028830109565165806</t>
-  </si>
-  <si>
-    <t>0.559632257509982+-0.05982738322922217</t>
-  </si>
-  <si>
-    <t>0.5610341951913312+-0.07830284373074507</t>
-  </si>
-  <si>
-    <t>0.5936981421607718+-0.058821300816973676</t>
+    <t>0.9995879883758476+-0.0009212859991248796</t>
+  </si>
+  <si>
+    <t>0.8520294381761465+-0.03488479157036034</t>
+  </si>
+  <si>
+    <t>0.5748232464015708+-0.03523403091830406</t>
+  </si>
+  <si>
+    <t>0.5998041919608915+-0.055314399053335794</t>
+  </si>
+  <si>
+    <t>0.5644783142093523+-0.06853245901918097</t>
   </si>
   <si>
     <t>0.787915653259578+-0.04600923891655534</t>
@@ -180,7 +180,10 @@
     <t>0.9966329966329966+-0.007528848409090217</t>
   </si>
   <si>
-    <t>0.9130277182085254+-0.02929432599182306</t>
+    <t>0.9064163482215544+-0.027157723419628334</t>
+  </si>
+  <si>
+    <t>0.9995952095499607+-0.0009051389629306435</t>
   </si>
   <si>
     <t>0.973512307281908+-0.016069113248164794</t>
@@ -189,22 +192,25 @@
     <t>0.99093283061025+-0.00941206168670471</t>
   </si>
   <si>
-    <t>0.9952242925737304+-0.01067880644578945</t>
+    <t>0.9994964085563186+-0.0011260647009589551</t>
+  </si>
+  <si>
+    <t>0.9948274173806609+-0.01156624635607601</t>
   </si>
   <si>
     <t>0.7172619085242852+-0.038498217923357975</t>
   </si>
   <si>
-    <t>0.7278994677969325+-0.05211805023295766</t>
-  </si>
-  <si>
-    <t>0.7071325677154486+-0.025260539242299835</t>
-  </si>
-  <si>
-    <t>0.7138525150751884+-0.05358348127408765</t>
-  </si>
-  <si>
-    <t>0.7229797520127791+-0.020506915021032534</t>
+    <t>0.7313597308027875+-0.020604300694928645</t>
+  </si>
+  <si>
+    <t>0.7227146301233882+-0.030306207344699836</t>
+  </si>
+  <si>
+    <t>0.7209797602809723+-0.04016923218348571</t>
+  </si>
+  <si>
+    <t>0.731291632804592+-0.029421014794880383</t>
   </si>
   <si>
     <t>0.721159395620535+-0.05262194090787996</t>
@@ -228,13 +234,13 @@
     <t>0.5917168886031429+-0.13187770360059692</t>
   </si>
   <si>
-    <t>0.7269168801744259+-0.01212646400315492</t>
+    <t>0.724862346253324+-0.009685587272644553</t>
   </si>
   <si>
     <t>0.711533404954122+-0.061353541197091035</t>
   </si>
   <si>
-    <t>0.7186313710973609+-0.054709999023176616</t>
+    <t>0.7172817064759864+-0.04399902596513927</t>
   </si>
   <si>
     <t>0.7005595420970149+-0.023873829335903315</t>
@@ -243,19 +249,19 @@
     <t>0.544577534358503+-0.14066055212507148</t>
   </si>
   <si>
-    <t>0.70476058477851+-0.03237034769849609</t>
-  </si>
-  <si>
-    <t>0.7225222300905106+-0.02274014085993829</t>
-  </si>
-  <si>
-    <t>0.6448953013590853+-0.028487594504037476</t>
-  </si>
-  <si>
-    <t>0.667006391739136+-0.02988438641005329</t>
-  </si>
-  <si>
-    <t>0.6518608675004928+-0.027131579343698642</t>
+    <t>0.7113448590742865+-0.02907406249801279</t>
+  </si>
+  <si>
+    <t>0.7259799658178853+-0.019393601845912135</t>
+  </si>
+  <si>
+    <t>0.654814117157611+-0.028816947171901103</t>
+  </si>
+  <si>
+    <t>0.6743407044354289+-0.02144806889766938</t>
+  </si>
+  <si>
+    <t>0.6753394781156288+-0.02813819259483999</t>
   </si>
   <si>
     <t>0.7115541492567911+-0.044714318825023414</t>
@@ -282,7 +288,7 @@
     <t>0.720903426114499+-0.052736876866310886</t>
   </si>
   <si>
-    <t>0.7127396555329145+-0.03865985665932242</t>
+    <t>0.7067916549491419+-0.04118321375320863</t>
   </si>
   <si>
     <t>0.7416690062198718+-0.025713422888701615</t>
@@ -294,22 +300,28 @@
     <t>0.6960671998752901+-0.04528851177899889</t>
   </si>
   <si>
-    <t>0.9442232612402327+-0.02285504992287243</t>
+    <t>0.9451468172859941+-0.01612647243631777</t>
   </si>
   <si>
     <t>0.925057164715984+-0.014263087416306127</t>
   </si>
   <si>
-    <t>0.9106608615329905+-0.019307524501789172</t>
-  </si>
-  <si>
-    <t>0.961044161466139+-0.01707003415416591</t>
-  </si>
-  <si>
-    <t>0.9621349721863128+-0.01651479133035658</t>
-  </si>
-  <si>
-    <t>0.9515416442322552+-0.015710530625411397</t>
+    <t>0.8814394019539705+-0.018653787614643542</t>
+  </si>
+  <si>
+    <t>0.9043915591660129+-0.020174590847397585</t>
+  </si>
+  <si>
+    <t>0.9108775079409046+-0.013385440689848361</t>
+  </si>
+  <si>
+    <t>0.9584885780340593+-0.015426098923756244</t>
+  </si>
+  <si>
+    <t>0.9585707125516985+-0.014929718502434582</t>
+  </si>
+  <si>
+    <t>0.950177337585505+-0.016278287907076736</t>
   </si>
   <si>
     <t>0.9608236862649543+-0.016107304967657086</t>
@@ -327,13 +339,10 @@
     <t>0.9576600896624738+-0.014274966359359606</t>
   </si>
   <si>
-    <t>0.9617881820057116+-0.016262778776010064</t>
-  </si>
-  <si>
-    <t>0.9645328966182609+-0.014349464266607246</t>
-  </si>
-  <si>
-    <t>0.9625190627088474+-0.0156195869642164</t>
+    <t>0.9562355005291366+-0.014886764035821572</t>
+  </si>
+  <si>
+    <t>0.9590788773757472+-0.017372961137088555</t>
   </si>
   <si>
     <t>0.9586223946430911+-0.015242150282886302</t>
@@ -345,13 +354,13 @@
     <t>0.7940388278310728+-0.03267099966820211</t>
   </si>
   <si>
-    <t>0.7123998396805544+-0.0651791938260351</t>
-  </si>
-  <si>
-    <t>0.710671851511835+-0.03927738448217904</t>
-  </si>
-  <si>
-    <t>0.7109873280490105+-0.04861598003825751</t>
+    <t>0.7175660843004278+-0.0384908017158099</t>
+  </si>
+  <si>
+    <t>0.7123128800397289+-0.03876864094600858</t>
+  </si>
+  <si>
+    <t>0.7348077610518682+-0.01862436169626704</t>
   </si>
   <si>
     <t>0.7728628971973669+-0.0305976181873874</t>
@@ -390,19 +399,19 @@
     <t>0.7083645701669011+-0.025967718955056326</t>
   </si>
   <si>
-    <t>0.9710935456477701+-0.019597474880504614</t>
+    <t>0.9878306878306878+-0.027211409249997476</t>
   </si>
   <si>
     <t>0.9764160164091438+-0.026194391060150455</t>
   </si>
   <si>
-    <t>0.9783290968437004+-0.012443977444899577</t>
-  </si>
-  <si>
-    <t>0.9847836114502782+-0.021962996349378715</t>
-  </si>
-  <si>
-    <t>0.988362676346836+-0.01596023549052707</t>
+    <t>0.9608637004057624+-0.04649507837940909</t>
+  </si>
+  <si>
+    <t>0.9705535657672105+-0.021219419941532033</t>
+  </si>
+  <si>
+    <t>0.9745515245212765+-0.04257101448393119</t>
   </si>
   <si>
     <t>0.987034972542219+-0.01818537538689726</t>
@@ -417,7 +426,7 @@
     <t>0.9823025987006496+-0.02745716865825289</t>
   </si>
   <si>
-    <t>0.994058229352347+-0.013286203074865008</t>
+    <t>0.9756205633447013+-0.024980001426820816</t>
   </si>
   <si>
     <t>0.9792082313821444+-0.020632592343479816</t>
@@ -426,6 +435,9 @@
     <t>0.9886513756696312+-0.02537629545381258</t>
   </si>
   <si>
+    <t>0.9805214305214305+-0.02748519309343529</t>
+  </si>
+  <si>
     <t>0.9935926773455378+-0.014327209009151975</t>
   </si>
   <si>
@@ -435,22 +447,22 @@
     <t>0.979509616787752+-0.011502241680626116</t>
   </si>
   <si>
-    <t>0.989030525030525+-0.024528491709228484</t>
-  </si>
-  <si>
-    <t>0.9896170446321518+-0.006276652053450046</t>
+    <t>0.9834463770293502+-0.015264045914384693</t>
+  </si>
+  <si>
+    <t>0.9928617502124291+-0.00747152974324236</t>
   </si>
   <si>
     <t>0.9968310591512717+-0.004432703417717063</t>
   </si>
   <si>
-    <t>0.9973450048554637+-0.003637950993615157</t>
-  </si>
-  <si>
-    <t>0.9985463996919522+-0.003250349100909361</t>
-  </si>
-  <si>
-    <t>0.9266180750411448+-0.01284079927274125</t>
+    <t>0.8917913290077198+-0.02610566278304044</t>
+  </si>
+  <si>
+    <t>0.911621557274714+-0.022387434817431384</t>
+  </si>
+  <si>
+    <t>0.9259113120134768+-0.022126718413351114</t>
   </si>
   <si>
     <t>0.9967434268065932+-0.003238147736160614</t>
@@ -477,13 +489,13 @@
     <t>0.9764677208838339+-0.011958930238285299</t>
   </si>
   <si>
-    <t>0.9960526060605879+-0.005371264243172914</t>
+    <t>0.9940089843548913+-0.004186956957619356</t>
   </si>
   <si>
     <t>0.983159937892284+-0.010900102114281813</t>
   </si>
   <si>
-    <t>0.972538295154468+-0.012184211604554549</t>
+    <t>0.9715991617419698+-0.016118865877551784</t>
   </si>
 </sst>
 </file>
@@ -978,19 +990,19 @@
         <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
         <v>49</v>
@@ -1007,55 +1019,55 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1063,55 +1075,55 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1119,55 +1131,55 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1175,55 +1187,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1231,55 +1243,55 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="R8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1287,55 +1299,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
